--- a/Webshop_Checkliste.xlsx
+++ b/Webshop_Checkliste.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\retro\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Webprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26265EB8-1236-4C30-8781-6E7B8439D8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E0FAF8-B862-DD4F-A746-C5560184AED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="680" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Webshop Checkliste (detailliert" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
   <si>
     <t>Nr</t>
   </si>
@@ -344,9 +343,6 @@
   </si>
   <si>
     <t>Ja</t>
-  </si>
-  <si>
-    <t>Nein</t>
   </si>
   <si>
     <t>Florian</t>
@@ -715,16 +711,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -761,7 +757,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -778,7 +774,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -795,7 +791,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -812,7 +808,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -829,7 +825,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -846,7 +842,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -860,10 +856,10 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -880,7 +876,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -897,7 +893,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -914,7 +910,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -931,7 +927,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -948,7 +944,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -962,10 +958,10 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -979,10 +975,10 @@
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -999,10 +995,10 @@
         <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1016,10 +1012,10 @@
         <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1033,10 +1029,10 @@
         <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1053,7 +1049,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1070,7 +1066,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1087,7 +1083,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1101,10 +1097,10 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1119,7 +1115,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1134,7 +1130,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1149,7 +1145,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1166,7 +1162,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1183,7 +1179,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1200,7 +1196,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -1217,7 +1213,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7</v>
       </c>
@@ -1234,7 +1230,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>7</v>
       </c>
@@ -1251,7 +1247,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>7</v>
       </c>
@@ -1268,7 +1264,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7</v>
       </c>
@@ -1285,7 +1281,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1302,7 +1298,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1319,7 +1315,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8</v>
       </c>
@@ -1336,7 +1332,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8</v>
       </c>
@@ -1353,7 +1349,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>8</v>
       </c>
@@ -1370,7 +1366,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8</v>
       </c>
@@ -1384,13 +1380,10 @@
         <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8</v>
       </c>
@@ -1404,10 +1397,10 @@
         <v>68</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9</v>
       </c>
@@ -1424,7 +1417,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>9</v>
       </c>
@@ -1438,10 +1431,10 @@
         <v>71</v>
       </c>
       <c r="F42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>9</v>
       </c>
@@ -1455,10 +1448,10 @@
         <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9</v>
       </c>
@@ -1471,11 +1464,11 @@
       <c r="D44" t="s">
         <v>74</v>
       </c>
-      <c r="F44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9</v>
       </c>
@@ -1488,11 +1481,11 @@
       <c r="D45" t="s">
         <v>75</v>
       </c>
-      <c r="F45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10</v>
       </c>
@@ -1506,10 +1499,10 @@
         <v>78</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1523,10 +1516,10 @@
         <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10</v>
       </c>
@@ -1540,10 +1533,10 @@
         <v>82</v>
       </c>
       <c r="F48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10</v>
       </c>
@@ -1557,10 +1550,10 @@
         <v>84</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10</v>
       </c>
@@ -1574,10 +1567,10 @@
         <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>11</v>
       </c>
@@ -1591,10 +1584,10 @@
         <v>88</v>
       </c>
       <c r="F51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>11</v>
       </c>
@@ -1608,10 +1601,10 @@
         <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>11</v>
       </c>
@@ -1625,10 +1618,10 @@
         <v>91</v>
       </c>
       <c r="F53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>12</v>
       </c>
@@ -1642,10 +1635,10 @@
         <v>94</v>
       </c>
       <c r="F54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>12</v>
       </c>
@@ -1659,10 +1652,10 @@
         <v>95</v>
       </c>
       <c r="F55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>12</v>
       </c>
@@ -1676,10 +1669,10 @@
         <v>96</v>
       </c>
       <c r="F56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>13</v>
       </c>
@@ -1696,7 +1689,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>13</v>
       </c>
@@ -1713,7 +1706,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>14</v>
       </c>
@@ -1730,7 +1723,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>14</v>
       </c>
@@ -1744,7 +1737,7 @@
         <v>104</v>
       </c>
       <c r="F60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Webshop_Checkliste.xlsx
+++ b/Webshop_Checkliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Webprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E0FAF8-B862-DD4F-A746-C5560184AED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124889C1-1391-5E4B-84F1-89DE3509A4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="680" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Webshop Checkliste (detailliert" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="111">
   <si>
     <t>Nr</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>Florian/(Kimi)/Andy</t>
+  </si>
+  <si>
+    <t>Punkte als Rabatt einlösen</t>
   </si>
 </sst>
 </file>
@@ -709,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1430,6 +1433,9 @@
       <c r="D42" t="s">
         <v>71</v>
       </c>
+      <c r="E42" t="s">
+        <v>105</v>
+      </c>
       <c r="F42" t="s">
         <v>108</v>
       </c>
@@ -1447,6 +1453,9 @@
       <c r="D43" t="s">
         <v>72</v>
       </c>
+      <c r="E43" t="s">
+        <v>105</v>
+      </c>
       <c r="F43" t="s">
         <v>108</v>
       </c>
@@ -1493,10 +1502,13 @@
         <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>110</v>
+      </c>
+      <c r="E46" t="s">
+        <v>105</v>
       </c>
       <c r="F46" t="s">
         <v>108</v>
@@ -1510,10 +1522,13 @@
         <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
       </c>
       <c r="F47" t="s">
         <v>108</v>
@@ -1527,10 +1542,13 @@
         <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="E48" t="s">
+        <v>105</v>
       </c>
       <c r="F48" t="s">
         <v>108</v>
@@ -1544,10 +1562,13 @@
         <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="E49" t="s">
+        <v>105</v>
       </c>
       <c r="F49" t="s">
         <v>108</v>
@@ -1561,10 +1582,10 @@
         <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F50" t="s">
         <v>108</v>
@@ -1572,16 +1593,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F51" t="s">
         <v>108</v>
@@ -1595,10 +1616,10 @@
         <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s">
         <v>108</v>
@@ -1612,27 +1633,27 @@
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F54" t="s">
         <v>106</v>
@@ -1646,10 +1667,10 @@
         <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F55" t="s">
         <v>106</v>
@@ -1663,10 +1684,10 @@
         <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F56" t="s">
         <v>106</v>
@@ -1674,19 +1695,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" t="s">
-        <v>105</v>
+        <v>96</v>
+      </c>
+      <c r="F57" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1697,10 +1718,10 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E58" t="s">
         <v>105</v>
@@ -1708,16 +1729,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E59" t="s">
         <v>105</v>
@@ -1731,18 +1752,35 @@
         <v>101</v>
       </c>
       <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" t="s">
         <v>103</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>104</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:E60 F53" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F54 E2:E61" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Ja,Nein"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Webshop_Checkliste.xlsx
+++ b/Webshop_Checkliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Webprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124889C1-1391-5E4B-84F1-89DE3509A4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528131CB-3973-A241-82CF-F7D31E84E42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1507,9 +1507,6 @@
       <c r="D46" t="s">
         <v>110</v>
       </c>
-      <c r="E46" t="s">
-        <v>105</v>
-      </c>
       <c r="F46" t="s">
         <v>108</v>
       </c>
@@ -1604,6 +1601,9 @@
       <c r="D51" t="s">
         <v>85</v>
       </c>
+      <c r="E51" t="s">
+        <v>105</v>
+      </c>
       <c r="F51" t="s">
         <v>108</v>
       </c>
@@ -1780,7 +1780,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="F54 E2:E61" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F54 E47:E61 E2:E45" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Ja,Nein"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Webshop_Checkliste.xlsx
+++ b/Webshop_Checkliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Webprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528131CB-3973-A241-82CF-F7D31E84E42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF4DE03-5B07-134F-9607-EB36EDA352E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="111">
   <si>
     <t>Nr</t>
   </si>
@@ -715,7 +715,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1584,6 +1584,9 @@
       <c r="D50" t="s">
         <v>84</v>
       </c>
+      <c r="E50" t="s">
+        <v>105</v>
+      </c>
       <c r="F50" t="s">
         <v>108</v>
       </c>
@@ -1620,6 +1623,9 @@
       </c>
       <c r="D52" t="s">
         <v>88</v>
+      </c>
+      <c r="E52" t="s">
+        <v>105</v>
       </c>
       <c r="F52" t="s">
         <v>108</v>

--- a/Webshop_Checkliste.xlsx
+++ b/Webshop_Checkliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Webprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF4DE03-5B07-134F-9607-EB36EDA352E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B8F1A2-15BB-144F-9747-80DBC370E9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="112">
   <si>
     <t>Nr</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>Punkte als Rabatt einlösen</t>
+  </si>
+  <si>
+    <t>ja</t>
   </si>
 </sst>
 </file>
@@ -714,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1507,6 +1510,9 @@
       <c r="D46" t="s">
         <v>110</v>
       </c>
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
       <c r="F46" t="s">
         <v>108</v>
       </c>
@@ -1643,6 +1649,9 @@
       </c>
       <c r="D53" t="s">
         <v>90</v>
+      </c>
+      <c r="E53" t="s">
+        <v>105</v>
       </c>
       <c r="F53" t="s">
         <v>108</v>
